--- a/data/pca/factorExposure/factorExposure_2017-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02362799162407387</v>
+        <v>0.009158843551292279</v>
       </c>
       <c r="C2">
-        <v>-0.004025933048589808</v>
+        <v>0.04460506104419504</v>
       </c>
       <c r="D2">
-        <v>-0.03102264372252373</v>
+        <v>-0.03008817291590902</v>
       </c>
       <c r="E2">
-        <v>-0.01043416080162289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03245869991724838</v>
+      </c>
+      <c r="F2">
+        <v>-0.01103991128682265</v>
+      </c>
+      <c r="G2">
+        <v>0.08112647368324638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0176699224439643</v>
+        <v>0.04384901348225474</v>
       </c>
       <c r="C3">
-        <v>0.04860649897234349</v>
+        <v>0.09335748045322181</v>
       </c>
       <c r="D3">
-        <v>-0.04859230352179757</v>
+        <v>-0.01749467500204915</v>
       </c>
       <c r="E3">
-        <v>-0.01544883572342575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09927198390063804</v>
+      </c>
+      <c r="F3">
+        <v>-0.01243321493811227</v>
+      </c>
+      <c r="G3">
+        <v>0.1657113675959717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02464925797734301</v>
+        <v>0.05592291683393354</v>
       </c>
       <c r="C4">
-        <v>0.01389633547326989</v>
+        <v>0.06769101570931481</v>
       </c>
       <c r="D4">
-        <v>-0.08075642106045147</v>
+        <v>-0.02464645565152208</v>
       </c>
       <c r="E4">
-        <v>0.01689315160851185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02550697296023948</v>
+      </c>
+      <c r="F4">
+        <v>-0.01329797903996326</v>
+      </c>
+      <c r="G4">
+        <v>0.09002183423148009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01446176372762496</v>
+        <v>0.03736754741583907</v>
       </c>
       <c r="C6">
-        <v>-0.0002527325933487496</v>
+        <v>0.05450696059310937</v>
       </c>
       <c r="D6">
-        <v>-0.0829750757252479</v>
+        <v>-0.01667142270744491</v>
       </c>
       <c r="E6">
-        <v>0.009236241623495485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02473714561996146</v>
+      </c>
+      <c r="F6">
+        <v>-0.01088634274932183</v>
+      </c>
+      <c r="G6">
+        <v>0.06266100090015143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01120636347477379</v>
+        <v>0.01973836336255351</v>
       </c>
       <c r="C7">
-        <v>0.00584161745916754</v>
+        <v>0.04145789265186445</v>
       </c>
       <c r="D7">
-        <v>-0.04079283091693443</v>
+        <v>-0.01317157963821619</v>
       </c>
       <c r="E7">
-        <v>0.05857025331695693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005343442424469508</v>
+      </c>
+      <c r="F7">
+        <v>0.002306786956418251</v>
+      </c>
+      <c r="G7">
+        <v>0.1212444823162629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0003625519671941131</v>
+        <v>0.002318969852985382</v>
       </c>
       <c r="C8">
-        <v>-0.001438055266969331</v>
+        <v>0.02437533258673585</v>
       </c>
       <c r="D8">
-        <v>-0.004182405610341341</v>
+        <v>-0.004024288195327609</v>
       </c>
       <c r="E8">
-        <v>0.008402135910298368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02043892807661865</v>
+      </c>
+      <c r="F8">
+        <v>-0.008088555520487067</v>
+      </c>
+      <c r="G8">
+        <v>0.05836761625217107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01682098311664187</v>
+        <v>0.03279822612527697</v>
       </c>
       <c r="C9">
-        <v>0.01390801006643187</v>
+        <v>0.04912588461038462</v>
       </c>
       <c r="D9">
-        <v>-0.06045649393233938</v>
+        <v>-0.01684378630657582</v>
       </c>
       <c r="E9">
-        <v>0.007452805602486838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01619512271475649</v>
+      </c>
+      <c r="F9">
+        <v>-0.01129202701805552</v>
+      </c>
+      <c r="G9">
+        <v>0.0862978637977716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02688455947963669</v>
+        <v>0.09888236248993823</v>
       </c>
       <c r="C10">
-        <v>0.1692039599569973</v>
+        <v>-0.1810652248926341</v>
       </c>
       <c r="D10">
-        <v>0.09771303898154435</v>
+        <v>0.01464107964348835</v>
       </c>
       <c r="E10">
-        <v>-0.01274053984143225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01924151768363065</v>
+      </c>
+      <c r="F10">
+        <v>0.02043296840741297</v>
+      </c>
+      <c r="G10">
+        <v>0.05731797417595162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.000893207457293092</v>
+        <v>0.03407470340577885</v>
       </c>
       <c r="C11">
-        <v>0.003589806346596286</v>
+        <v>0.05508006922156139</v>
       </c>
       <c r="D11">
-        <v>-0.04613322226802889</v>
+        <v>-0.00247098830237411</v>
       </c>
       <c r="E11">
-        <v>-0.002911355036839322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008822989132952314</v>
+      </c>
+      <c r="F11">
+        <v>-0.02220853611978928</v>
+      </c>
+      <c r="G11">
+        <v>0.06989059768777893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00641871250753282</v>
+        <v>0.03573165997475719</v>
       </c>
       <c r="C12">
-        <v>0.008758242827579003</v>
+        <v>0.04880148329083886</v>
       </c>
       <c r="D12">
-        <v>-0.04703476466509555</v>
+        <v>-0.006110169485661519</v>
       </c>
       <c r="E12">
-        <v>0.008555769662162399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0001864825031121132</v>
+      </c>
+      <c r="F12">
+        <v>-0.00133310795256092</v>
+      </c>
+      <c r="G12">
+        <v>0.06578423434555336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02448699485693696</v>
+        <v>0.01514391788671963</v>
       </c>
       <c r="C13">
-        <v>0.01660323639532267</v>
+        <v>0.03967243934383844</v>
       </c>
       <c r="D13">
-        <v>-0.009947654833092625</v>
+        <v>-0.02647567119512748</v>
       </c>
       <c r="E13">
-        <v>-0.008133601656810794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02922548649726465</v>
+      </c>
+      <c r="F13">
+        <v>-0.00878200257027772</v>
+      </c>
+      <c r="G13">
+        <v>0.1017518360613029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009080847423578679</v>
+        <v>0.007889551984848597</v>
       </c>
       <c r="C14">
-        <v>0.01370159541420724</v>
+        <v>0.02730253639945784</v>
       </c>
       <c r="D14">
-        <v>-0.01106886271595606</v>
+        <v>-0.009566345628540026</v>
       </c>
       <c r="E14">
-        <v>0.007768726113869071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-2.252188844027937e-05</v>
+      </c>
+      <c r="F14">
+        <v>0.006269559321483867</v>
+      </c>
+      <c r="G14">
+        <v>0.08739519388404429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001869809248891213</v>
+        <v>0.03294970736897491</v>
       </c>
       <c r="C16">
-        <v>0.009746100033592898</v>
+        <v>0.04869722212205987</v>
       </c>
       <c r="D16">
-        <v>-0.04881495862528194</v>
+        <v>-0.001971815469540148</v>
       </c>
       <c r="E16">
-        <v>0.007234652221031933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007777440652727177</v>
+      </c>
+      <c r="F16">
+        <v>-0.002977904360193934</v>
+      </c>
+      <c r="G16">
+        <v>0.07369476591554357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01509757567043943</v>
+        <v>0.02044762149727993</v>
       </c>
       <c r="C19">
-        <v>0.01658163746001459</v>
+        <v>0.05178113482680304</v>
       </c>
       <c r="D19">
-        <v>-0.02325230646609406</v>
+        <v>-0.01913516388992851</v>
       </c>
       <c r="E19">
-        <v>0.004888352486114543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06515222193101548</v>
+      </c>
+      <c r="F19">
+        <v>-0.02533925096974445</v>
+      </c>
+      <c r="G19">
+        <v>0.1180289554518171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01120442820258468</v>
+        <v>0.0142834574658135</v>
       </c>
       <c r="C20">
-        <v>0.005188609408080064</v>
+        <v>0.03870528090072784</v>
       </c>
       <c r="D20">
-        <v>-0.0173260562977184</v>
+        <v>-0.01427326528399281</v>
       </c>
       <c r="E20">
-        <v>-0.01118508966659667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0275090514444639</v>
+      </c>
+      <c r="F20">
+        <v>0.008175203756432051</v>
+      </c>
+      <c r="G20">
+        <v>0.09362863451267997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01535678404288687</v>
+        <v>0.01219055725478329</v>
       </c>
       <c r="C21">
-        <v>0.01448176365136775</v>
+        <v>0.04009469756842034</v>
       </c>
       <c r="D21">
-        <v>-0.02648723626665051</v>
+        <v>-0.01876154897210885</v>
       </c>
       <c r="E21">
-        <v>0.01242586361375274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04064796660301688</v>
+      </c>
+      <c r="F21">
+        <v>-0.001987669768302615</v>
+      </c>
+      <c r="G21">
+        <v>0.1227732976522233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0004507004358352283</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002657463642935287</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.000200126728271729</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0007346381501612837</v>
+      </c>
+      <c r="F22">
+        <v>-0.0006443158353585774</v>
+      </c>
+      <c r="G22">
+        <v>0.001831087032890388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0004550249081867581</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002653632787645568</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002002819111982342</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0007400298338217786</v>
+      </c>
+      <c r="F23">
+        <v>-0.0006426050602308298</v>
+      </c>
+      <c r="G23">
+        <v>0.001839944715354828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004442057278668158</v>
+        <v>0.02753083309999646</v>
       </c>
       <c r="C24">
-        <v>-0.002214864353636116</v>
+        <v>0.05159925340575904</v>
       </c>
       <c r="D24">
-        <v>-0.04580521818271971</v>
+        <v>-0.007244105719383227</v>
       </c>
       <c r="E24">
-        <v>0.005860453214449294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004500642291562458</v>
+      </c>
+      <c r="F24">
+        <v>-0.01454142439640666</v>
+      </c>
+      <c r="G24">
+        <v>0.07359098589229947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01265573183004432</v>
+        <v>0.04206534315213319</v>
       </c>
       <c r="C25">
-        <v>0.0136711426625606</v>
+        <v>0.05892395393835029</v>
       </c>
       <c r="D25">
-        <v>-0.04934865205731959</v>
+        <v>-0.01121341381805908</v>
       </c>
       <c r="E25">
-        <v>0.004386597942659345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002011056762455869</v>
+      </c>
+      <c r="F25">
+        <v>-0.008906412348808519</v>
+      </c>
+      <c r="G25">
+        <v>0.08024552285522517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02346648680364456</v>
+        <v>0.01401555949787765</v>
       </c>
       <c r="C26">
-        <v>0.007638159210529264</v>
+        <v>0.01128036569428076</v>
       </c>
       <c r="D26">
-        <v>0.003374406404347459</v>
+        <v>-0.0238184885427365</v>
       </c>
       <c r="E26">
-        <v>0.00819798511952417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005157074092617973</v>
+      </c>
+      <c r="F26">
+        <v>0.007575138066306166</v>
+      </c>
+      <c r="G26">
+        <v>0.0697237598204055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05197788222234039</v>
+        <v>0.1271075869142289</v>
       </c>
       <c r="C28">
-        <v>0.2398629702242555</v>
+        <v>-0.2351237908264251</v>
       </c>
       <c r="D28">
-        <v>0.1372068951261981</v>
+        <v>0.005757090954090849</v>
       </c>
       <c r="E28">
-        <v>0.01110711496772608</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005389966653224197</v>
+      </c>
+      <c r="F28">
+        <v>0.0161406366805821</v>
+      </c>
+      <c r="G28">
+        <v>0.06493262080678022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009450011688009321</v>
+        <v>0.009116035653466028</v>
       </c>
       <c r="C29">
-        <v>0.01736278495615046</v>
+        <v>0.02144480381219499</v>
       </c>
       <c r="D29">
-        <v>-0.00871987172341806</v>
+        <v>-0.008602228034092212</v>
       </c>
       <c r="E29">
-        <v>0.002593431334142588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0007876325820221945</v>
+      </c>
+      <c r="F29">
+        <v>0.0145126917643288</v>
+      </c>
+      <c r="G29">
+        <v>0.07919685059315994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0238996975960391</v>
+        <v>0.0410156378204001</v>
       </c>
       <c r="C30">
-        <v>-0.002358246683990358</v>
+        <v>0.06899220506495121</v>
       </c>
       <c r="D30">
-        <v>-0.06506142575679079</v>
+        <v>-0.02921297486738075</v>
       </c>
       <c r="E30">
-        <v>-0.04217619658725816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05014856007876194</v>
+      </c>
+      <c r="F30">
+        <v>-0.05134366924860519</v>
+      </c>
+      <c r="G30">
+        <v>0.08753347690547497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01111755249693727</v>
+        <v>0.05249270357510175</v>
       </c>
       <c r="C31">
-        <v>0.0388358962184245</v>
+        <v>0.03741241394684592</v>
       </c>
       <c r="D31">
-        <v>-0.04364726768252176</v>
+        <v>-0.003589797978145755</v>
       </c>
       <c r="E31">
-        <v>0.009051065728491375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00348801797771551</v>
+      </c>
+      <c r="F31">
+        <v>0.03857003151434629</v>
+      </c>
+      <c r="G31">
+        <v>0.07957808400631831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004828837283160816</v>
+        <v>0.001288082929647583</v>
       </c>
       <c r="C32">
-        <v>0.01952095889401587</v>
+        <v>0.02364622185455531</v>
       </c>
       <c r="D32">
-        <v>-0.002133391143830087</v>
+        <v>0.003727643089912133</v>
       </c>
       <c r="E32">
-        <v>0.0529827435190242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01554295468393127</v>
+      </c>
+      <c r="F32">
+        <v>-0.04121797510441319</v>
+      </c>
+      <c r="G32">
+        <v>0.09285817381782602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0152948880270076</v>
+        <v>0.02733692792395521</v>
       </c>
       <c r="C33">
-        <v>0.02410281155644333</v>
+        <v>0.04986194820736387</v>
       </c>
       <c r="D33">
-        <v>-0.03479781853417448</v>
+        <v>-0.01575967517557799</v>
       </c>
       <c r="E33">
-        <v>-0.02713817074945423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03359918234525366</v>
+      </c>
+      <c r="F33">
+        <v>-0.01948297591219273</v>
+      </c>
+      <c r="G33">
+        <v>0.1177744913673224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003639919372355622</v>
+        <v>0.0398949880270077</v>
       </c>
       <c r="C34">
-        <v>0.01526309316190872</v>
+        <v>0.06241115890189131</v>
       </c>
       <c r="D34">
-        <v>-0.05338370273813094</v>
+        <v>0.00468881550019868</v>
       </c>
       <c r="E34">
-        <v>0.01244666576730469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001428366802505293</v>
+      </c>
+      <c r="F34">
+        <v>-0.02072794392964863</v>
+      </c>
+      <c r="G34">
+        <v>0.08157592856332439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01364853579442232</v>
+        <v>0.01560903558286659</v>
       </c>
       <c r="C36">
-        <v>0.0180669077029848</v>
+        <v>0.009403487418023895</v>
       </c>
       <c r="D36">
-        <v>-0.005744560229357294</v>
+        <v>-0.01209447621327798</v>
       </c>
       <c r="E36">
-        <v>0.004263454791057475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00240586541346157</v>
+      </c>
+      <c r="F36">
+        <v>0.005611764271806038</v>
+      </c>
+      <c r="G36">
+        <v>0.07097037769569617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00201553869505853</v>
+        <v>0.0323007037628392</v>
       </c>
       <c r="C38">
-        <v>0.0326328072519487</v>
+        <v>0.03127632027534969</v>
       </c>
       <c r="D38">
-        <v>-0.04237445248669637</v>
+        <v>0.007615748250367945</v>
       </c>
       <c r="E38">
-        <v>0.006210638872593709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002566399751660169</v>
+      </c>
+      <c r="F38">
+        <v>0.01622715420601653</v>
+      </c>
+      <c r="G38">
+        <v>0.07229634155783964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003359617516294624</v>
+        <v>0.03454631851016741</v>
       </c>
       <c r="C39">
-        <v>-0.02524689543781587</v>
+        <v>0.08105747231067324</v>
       </c>
       <c r="D39">
-        <v>-0.08862057702847059</v>
+        <v>-0.01175124631325902</v>
       </c>
       <c r="E39">
-        <v>-0.005779272009373185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01886236134086778</v>
+      </c>
+      <c r="F39">
+        <v>-0.02701330173342623</v>
+      </c>
+      <c r="G39">
+        <v>0.07094963621111834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01265002786198286</v>
+        <v>0.0152010194322748</v>
       </c>
       <c r="C40">
-        <v>0.01421796121622396</v>
+        <v>0.04273296209252018</v>
       </c>
       <c r="D40">
-        <v>-0.03169667354198915</v>
+        <v>-0.01493490842170197</v>
       </c>
       <c r="E40">
-        <v>0.004345102106150139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01997787682180998</v>
+      </c>
+      <c r="F40">
+        <v>0.01229983635332348</v>
+      </c>
+      <c r="G40">
+        <v>0.1058546925779494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006919971862749509</v>
+        <v>0.01941260999780692</v>
       </c>
       <c r="C41">
-        <v>0.02011334330618321</v>
+        <v>0.000264427345301312</v>
       </c>
       <c r="D41">
-        <v>0.009800046927401366</v>
+        <v>-0.004137289935476323</v>
       </c>
       <c r="E41">
-        <v>0.00256306312881052</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0009548465305386994</v>
+      </c>
+      <c r="F41">
+        <v>0.0107774339691207</v>
+      </c>
+      <c r="G41">
+        <v>0.05899996667408813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09073978506747178</v>
+        <v>0.008876168085055496</v>
       </c>
       <c r="C42">
-        <v>-0.03613094958391899</v>
+        <v>0.03750133171456037</v>
       </c>
       <c r="D42">
-        <v>-0.2382888404610125</v>
+        <v>-0.09261951077465283</v>
       </c>
       <c r="E42">
-        <v>-0.3973598132433062</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02250568643081917</v>
+      </c>
+      <c r="F42">
+        <v>0.0386759048465127</v>
+      </c>
+      <c r="G42">
+        <v>-0.1575133691984251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008606551571518158</v>
+        <v>0.03314819090235326</v>
       </c>
       <c r="C43">
-        <v>0.02572479982282689</v>
+        <v>0.01532897453171524</v>
       </c>
       <c r="D43">
-        <v>0.006021130027436411</v>
+        <v>-0.006005574060257041</v>
       </c>
       <c r="E43">
-        <v>-0.0007187409748880573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01538933091248385</v>
+      </c>
+      <c r="F43">
+        <v>0.001197242727944204</v>
+      </c>
+      <c r="G43">
+        <v>0.08621185517352077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003339766975396743</v>
+        <v>0.01210025266451124</v>
       </c>
       <c r="C44">
-        <v>0.002878320120962476</v>
+        <v>0.05839390967457787</v>
       </c>
       <c r="D44">
-        <v>-0.0413024345108992</v>
+        <v>-0.00684977120621025</v>
       </c>
       <c r="E44">
-        <v>0.006468146596349511</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01757685667183019</v>
+      </c>
+      <c r="F44">
+        <v>0.006141669451430067</v>
+      </c>
+      <c r="G44">
+        <v>0.08801989024197948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01185008908542802</v>
+        <v>0.007745331947453203</v>
       </c>
       <c r="C46">
-        <v>0.01352900858754169</v>
+        <v>0.01657340393591793</v>
       </c>
       <c r="D46">
-        <v>-0.007541744611796275</v>
+        <v>-0.01229691509378241</v>
       </c>
       <c r="E46">
-        <v>-0.002742907625590365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0004576919160647</v>
+      </c>
+      <c r="F46">
+        <v>0.01398819258297797</v>
+      </c>
+      <c r="G46">
+        <v>0.08048458856023059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005713277436149698</v>
+        <v>0.07711938182866211</v>
       </c>
       <c r="C47">
-        <v>0.04798403792362874</v>
+        <v>0.06671897369762804</v>
       </c>
       <c r="D47">
-        <v>-0.07087585848956078</v>
+        <v>0.005440305748943239</v>
       </c>
       <c r="E47">
-        <v>0.007670216312236955</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009083544293574787</v>
+      </c>
+      <c r="F47">
+        <v>0.05404684649035173</v>
+      </c>
+      <c r="G47">
+        <v>0.07226769587148253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004955513604460791</v>
+        <v>0.02016034355003078</v>
       </c>
       <c r="C48">
-        <v>0.02405133657019842</v>
+        <v>0.01244019947527673</v>
       </c>
       <c r="D48">
-        <v>-0.01634079679647453</v>
+        <v>-0.00142588544065675</v>
       </c>
       <c r="E48">
-        <v>0.002726816549437595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0004024302810256376</v>
+      </c>
+      <c r="F48">
+        <v>0.01933659818027917</v>
+      </c>
+      <c r="G48">
+        <v>0.07556985286583348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.008356791997030736</v>
+        <v>0.07541790970942067</v>
       </c>
       <c r="C50">
-        <v>0.05256331171190379</v>
+        <v>0.06922265105354175</v>
       </c>
       <c r="D50">
-        <v>-0.07246567427284778</v>
+        <v>0.00286577287219512</v>
       </c>
       <c r="E50">
-        <v>0.03215555641414674</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.008159821920783189</v>
+      </c>
+      <c r="F50">
+        <v>0.05586250541837386</v>
+      </c>
+      <c r="G50">
+        <v>0.08985811264115044</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00783123254539342</v>
+        <v>0.01352255732076181</v>
       </c>
       <c r="C51">
-        <v>0.01279126493781141</v>
+        <v>0.0358277476610572</v>
       </c>
       <c r="D51">
-        <v>-0.001710133260623226</v>
+        <v>-0.01040416474335218</v>
       </c>
       <c r="E51">
-        <v>0.005943141955314517</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01724564666436616</v>
+      </c>
+      <c r="F51">
+        <v>-0.02609101801788556</v>
+      </c>
+      <c r="G51">
+        <v>0.1082253546693203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009447095965912184</v>
+        <v>0.08166977636711704</v>
       </c>
       <c r="C53">
-        <v>0.05950585045610792</v>
+        <v>0.08402623705212518</v>
       </c>
       <c r="D53">
-        <v>-0.1285434087576398</v>
+        <v>0.004389318256151877</v>
       </c>
       <c r="E53">
-        <v>0.01590766722151493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02847228700112011</v>
+      </c>
+      <c r="F53">
+        <v>0.06523142484649003</v>
+      </c>
+      <c r="G53">
+        <v>0.07080689108862481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002722173279651594</v>
+        <v>0.02896296219387934</v>
       </c>
       <c r="C54">
-        <v>0.03328946529464422</v>
+        <v>0.01579195976512559</v>
       </c>
       <c r="D54">
-        <v>0.008021923799494176</v>
+        <v>0.001243684852467878</v>
       </c>
       <c r="E54">
-        <v>-0.001597901807776156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01104021197139184</v>
+      </c>
+      <c r="F54">
+        <v>-0.002435495839818303</v>
+      </c>
+      <c r="G54">
+        <v>0.08337943921834891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004745892240477866</v>
+        <v>0.07097295247827005</v>
       </c>
       <c r="C55">
-        <v>0.03706987543921487</v>
+        <v>0.06843491830626521</v>
       </c>
       <c r="D55">
-        <v>-0.1027515439314103</v>
+        <v>0.005596541727821478</v>
       </c>
       <c r="E55">
-        <v>0.0001126302923570537</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02467340313923977</v>
+      </c>
+      <c r="F55">
+        <v>0.0617172127461738</v>
+      </c>
+      <c r="G55">
+        <v>0.04478328008910635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008871281665628701</v>
+        <v>0.1373892145759911</v>
       </c>
       <c r="C56">
-        <v>0.08129777115601486</v>
+        <v>0.1085061185978942</v>
       </c>
       <c r="D56">
-        <v>-0.1628941450941827</v>
+        <v>0.01305917617009035</v>
       </c>
       <c r="E56">
-        <v>0.005702391214323023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03290858707761873</v>
+      </c>
+      <c r="F56">
+        <v>0.08023764976974022</v>
+      </c>
+      <c r="G56">
+        <v>0.0211249549068023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0241026218867516</v>
+        <v>0.006792570221429945</v>
       </c>
       <c r="C57">
-        <v>0.007334981812265895</v>
+        <v>0.009388364803859418</v>
       </c>
       <c r="D57">
-        <v>-0.04780568001338364</v>
+        <v>-0.02364086554370433</v>
       </c>
       <c r="E57">
-        <v>-0.005398352844941828</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0238547797931916</v>
+      </c>
+      <c r="F57">
+        <v>-0.008924147229480666</v>
+      </c>
+      <c r="G57">
+        <v>0.02797633863218019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01803293497947262</v>
+        <v>0.05724427955776197</v>
       </c>
       <c r="C58">
-        <v>0.07033817104103422</v>
+        <v>0.0550825556498392</v>
       </c>
       <c r="D58">
-        <v>-0.1481369024852868</v>
+        <v>-0.03224963693517827</v>
       </c>
       <c r="E58">
-        <v>-0.4943790312076896</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.935904746636663</v>
+      </c>
+      <c r="F58">
+        <v>0.2377996014546137</v>
+      </c>
+      <c r="G58">
+        <v>-0.1193097979715868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05182585332106541</v>
+        <v>0.1602157841562439</v>
       </c>
       <c r="C59">
-        <v>0.2638174647366596</v>
+        <v>-0.2001853699605771</v>
       </c>
       <c r="D59">
-        <v>0.1331055678757089</v>
+        <v>0.01055366419790704</v>
       </c>
       <c r="E59">
-        <v>0.004628898447711229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01901019478194781</v>
+      </c>
+      <c r="F59">
+        <v>-0.003092303557016296</v>
+      </c>
+      <c r="G59">
+        <v>0.04436420655701014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.0477987157783682</v>
+        <v>0.2865164915898323</v>
       </c>
       <c r="C60">
-        <v>0.161435112097238</v>
+        <v>0.1067148323586869</v>
       </c>
       <c r="D60">
-        <v>-0.09546538670053105</v>
+        <v>-0.01336882618630833</v>
       </c>
       <c r="E60">
-        <v>0.01506561101308522</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002414355750500517</v>
+      </c>
+      <c r="F60">
+        <v>-0.3506487391414654</v>
+      </c>
+      <c r="G60">
+        <v>-0.1286489634202185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003491957253860165</v>
+        <v>0.03688504888435509</v>
       </c>
       <c r="C61">
-        <v>0.005141067767710812</v>
+        <v>0.06762340539150005</v>
       </c>
       <c r="D61">
-        <v>-0.06647154239736568</v>
+        <v>-0.005246211809670131</v>
       </c>
       <c r="E61">
-        <v>0.006383219611804177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01217000669925041</v>
+      </c>
+      <c r="F61">
+        <v>-0.01503935222079819</v>
+      </c>
+      <c r="G61">
+        <v>0.07302298877494977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008293385058497273</v>
+        <v>0.0139411902614086</v>
       </c>
       <c r="C63">
-        <v>0.005865172719945968</v>
+        <v>0.02972675038432692</v>
       </c>
       <c r="D63">
-        <v>-0.01987326180033426</v>
+        <v>-0.008316963986627826</v>
       </c>
       <c r="E63">
-        <v>0.01126228679010331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0005358805741223817</v>
+      </c>
+      <c r="F63">
+        <v>0.01556180257504254</v>
+      </c>
+      <c r="G63">
+        <v>0.07575576022346971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009848641897121939</v>
+        <v>0.04715122962530713</v>
       </c>
       <c r="C64">
-        <v>0.02655083056788482</v>
+        <v>0.04604825215086508</v>
       </c>
       <c r="D64">
-        <v>-0.05765173812381431</v>
+        <v>-0.006407161622443923</v>
       </c>
       <c r="E64">
-        <v>-0.007081467728527444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00165243436861947</v>
+      </c>
+      <c r="F64">
+        <v>-0.006178006307156538</v>
+      </c>
+      <c r="G64">
+        <v>0.07300039081728985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01719031561483503</v>
+        <v>0.07567377605706657</v>
       </c>
       <c r="C65">
-        <v>0.002391214302438677</v>
+        <v>0.06163663414968673</v>
       </c>
       <c r="D65">
-        <v>-0.0973707929315714</v>
+        <v>-0.01648518816601712</v>
       </c>
       <c r="E65">
-        <v>0.01632577650028053</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02705450187872884</v>
+      </c>
+      <c r="F65">
+        <v>-0.02941145471466507</v>
+      </c>
+      <c r="G65">
+        <v>0.02727006884790784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003675390511742427</v>
+        <v>0.05038186258093798</v>
       </c>
       <c r="C66">
-        <v>-0.01922344090408204</v>
+        <v>0.1110534181559935</v>
       </c>
       <c r="D66">
-        <v>-0.1183123683415079</v>
+        <v>-0.01178244993698115</v>
       </c>
       <c r="E66">
-        <v>-0.002006519897995353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02721351270647219</v>
+      </c>
+      <c r="F66">
+        <v>-0.03668771772973298</v>
+      </c>
+      <c r="G66">
+        <v>0.08512086252360006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005000165812847954</v>
+        <v>0.05502802872563799</v>
       </c>
       <c r="C67">
-        <v>0.05247100184999599</v>
+        <v>0.03500939861655795</v>
       </c>
       <c r="D67">
-        <v>-0.05289533121965154</v>
+        <v>0.006007077798583733</v>
       </c>
       <c r="E67">
-        <v>0.00797965857585275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004101690807257366</v>
+      </c>
+      <c r="F67">
+        <v>0.01694628472494613</v>
+      </c>
+      <c r="G67">
+        <v>0.06503658557200867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0661743114377482</v>
+        <v>0.1541505213630568</v>
       </c>
       <c r="C68">
-        <v>0.2359782966598831</v>
+        <v>-0.2679551875601991</v>
       </c>
       <c r="D68">
-        <v>0.1546203978255186</v>
+        <v>-0.006521452851559464</v>
       </c>
       <c r="E68">
-        <v>-0.02096510180659212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01246160996726681</v>
+      </c>
+      <c r="F68">
+        <v>0.031665097427136</v>
+      </c>
+      <c r="G68">
+        <v>0.02958329045275191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0005998077474432564</v>
+        <v>0.0806062752447094</v>
       </c>
       <c r="C69">
-        <v>0.03943818408804186</v>
+        <v>0.06952848807178783</v>
       </c>
       <c r="D69">
-        <v>-0.07314855979123411</v>
+        <v>0.009503035754922621</v>
       </c>
       <c r="E69">
-        <v>0.01515429861573754</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02533682639213404</v>
+      </c>
+      <c r="F69">
+        <v>0.03702643553238988</v>
+      </c>
+      <c r="G69">
+        <v>0.07717603609719553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04998774285687434</v>
+        <v>0.1404907181578619</v>
       </c>
       <c r="C71">
-        <v>0.2063347037269725</v>
+        <v>-0.2285058739103579</v>
       </c>
       <c r="D71">
-        <v>0.1156178161213886</v>
+        <v>0.00214499157052995</v>
       </c>
       <c r="E71">
-        <v>-0.0115569337439238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03202936391206832</v>
+      </c>
+      <c r="F71">
+        <v>0.01660202855223067</v>
+      </c>
+      <c r="G71">
+        <v>0.06024293222445513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003054413782708937</v>
+        <v>0.08485473087470079</v>
       </c>
       <c r="C72">
-        <v>0.03401657346374895</v>
+        <v>0.07327500531063752</v>
       </c>
       <c r="D72">
-        <v>-0.1204584513420168</v>
+        <v>0.007950305297620822</v>
       </c>
       <c r="E72">
-        <v>0.01325157891009693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002695476705769975</v>
+      </c>
+      <c r="F72">
+        <v>-0.04238369071500172</v>
+      </c>
+      <c r="G72">
+        <v>0.06466190216130657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06018601961848212</v>
+        <v>0.37316064295327</v>
       </c>
       <c r="C73">
-        <v>0.172947115816684</v>
+        <v>0.1215390388363569</v>
       </c>
       <c r="D73">
-        <v>-0.1940500563127426</v>
+        <v>-0.02310878443603404</v>
       </c>
       <c r="E73">
-        <v>-0.01433552866348833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06932638380079806</v>
+      </c>
+      <c r="F73">
+        <v>-0.5724810641723215</v>
+      </c>
+      <c r="G73">
+        <v>-0.2413118941876189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005118110654974323</v>
+        <v>0.1048061390129146</v>
       </c>
       <c r="C74">
-        <v>0.06425959104196791</v>
+        <v>0.1108055414573417</v>
       </c>
       <c r="D74">
-        <v>-0.1693958935963792</v>
+        <v>0.00999287425079887</v>
       </c>
       <c r="E74">
-        <v>-0.003365803379368305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01166495026594769</v>
+      </c>
+      <c r="F74">
+        <v>0.06927332483830366</v>
+      </c>
+      <c r="G74">
+        <v>0.06476717405063266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01624661584255539</v>
+        <v>0.248443357011444</v>
       </c>
       <c r="C75">
-        <v>0.157465954190859</v>
+        <v>0.1499068688892209</v>
       </c>
       <c r="D75">
-        <v>-0.3008404785712501</v>
+        <v>0.03159755236523477</v>
       </c>
       <c r="E75">
-        <v>-0.01369120810884451</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05753375120544372</v>
+      </c>
+      <c r="F75">
+        <v>0.1752698948548071</v>
+      </c>
+      <c r="G75">
+        <v>-0.05617633511596177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004699507683336034</v>
+        <v>0.1220589332887767</v>
       </c>
       <c r="C76">
-        <v>0.1067512145308854</v>
+        <v>0.1118238303565556</v>
       </c>
       <c r="D76">
-        <v>-0.2313671774647287</v>
+        <v>0.02063115796319593</v>
       </c>
       <c r="E76">
-        <v>0.03532900861417339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03929922530228486</v>
+      </c>
+      <c r="F76">
+        <v>0.1164081150580955</v>
+      </c>
+      <c r="G76">
+        <v>0.04302105113065881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01460476949335641</v>
+        <v>0.06614614873401575</v>
       </c>
       <c r="C77">
-        <v>0.0186885984066484</v>
+        <v>0.06349677010600355</v>
       </c>
       <c r="D77">
-        <v>-0.04454604747834526</v>
+        <v>-0.01247513713651867</v>
       </c>
       <c r="E77">
-        <v>-0.01510161461588514</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04623674639404822</v>
+      </c>
+      <c r="F77">
+        <v>-0.009545791569748874</v>
+      </c>
+      <c r="G77">
+        <v>0.05388293719047118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005891378774461603</v>
+        <v>0.0422643640918217</v>
       </c>
       <c r="C78">
-        <v>0.01408207694352986</v>
+        <v>0.05197199169993842</v>
       </c>
       <c r="D78">
-        <v>-0.04199858906987468</v>
+        <v>-0.005645830203599058</v>
       </c>
       <c r="E78">
-        <v>0.001722275870268171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02115088252656241</v>
+      </c>
+      <c r="F78">
+        <v>-0.03730381710043221</v>
+      </c>
+      <c r="G78">
+        <v>0.07655036250548737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01894747816391319</v>
+        <v>0.0539936737086297</v>
       </c>
       <c r="C80">
-        <v>0.07607589599949249</v>
+        <v>0.0732139997219771</v>
       </c>
       <c r="D80">
-        <v>-0.2105125033355924</v>
+        <v>-0.0104968463186871</v>
       </c>
       <c r="E80">
-        <v>0.7463944073407695</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02599183611578701</v>
+      </c>
+      <c r="F80">
+        <v>-0.009368006152355619</v>
+      </c>
+      <c r="G80">
+        <v>0.562382893878713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01119211646839181</v>
+        <v>0.1402143472415931</v>
       </c>
       <c r="C81">
-        <v>0.09766674916454567</v>
+        <v>0.09589218099335263</v>
       </c>
       <c r="D81">
-        <v>-0.1696760062425128</v>
+        <v>0.01598344033810252</v>
       </c>
       <c r="E81">
-        <v>0.01580374458258083</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03495315719641325</v>
+      </c>
+      <c r="F81">
+        <v>0.1337311093406494</v>
+      </c>
+      <c r="G81">
+        <v>0.02147226478476333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1241285021063499</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06967782456711655</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008535459815246168</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08782361604973631</v>
+      </c>
+      <c r="F82">
+        <v>0.03454235719434352</v>
+      </c>
+      <c r="G82">
+        <v>0.03093853071205724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.00835544224721228</v>
+        <v>0.03642352040440208</v>
       </c>
       <c r="C83">
-        <v>0.02204929069300574</v>
+        <v>0.02873411076004351</v>
       </c>
       <c r="D83">
-        <v>-0.02446887708207982</v>
+        <v>-0.006042599165818708</v>
       </c>
       <c r="E83">
-        <v>-0.004246262052838876</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02822349146474377</v>
+      </c>
+      <c r="F83">
+        <v>-0.03348911199063574</v>
+      </c>
+      <c r="G83">
+        <v>0.05566199868130014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02255564111766754</v>
+        <v>0.2157135061569379</v>
       </c>
       <c r="C85">
-        <v>0.1276464842922101</v>
+        <v>0.1457661181027729</v>
       </c>
       <c r="D85">
-        <v>-0.2756354168834637</v>
+        <v>0.01999603602549571</v>
       </c>
       <c r="E85">
-        <v>-0.0004679707293928324</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1003948722919654</v>
+      </c>
+      <c r="F85">
+        <v>0.1408211456584751</v>
+      </c>
+      <c r="G85">
+        <v>-0.110945097437915</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01018688516811093</v>
+        <v>0.01349112360786078</v>
       </c>
       <c r="C86">
-        <v>0.02713984032917863</v>
+        <v>0.02839589520801943</v>
       </c>
       <c r="D86">
-        <v>-0.01338100241038486</v>
+        <v>-0.01266182311617187</v>
       </c>
       <c r="E86">
-        <v>-0.03587096664405286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0453390297579865</v>
+      </c>
+      <c r="F86">
+        <v>-0.03464801654650102</v>
+      </c>
+      <c r="G86">
+        <v>0.1611793135268471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008714926255349581</v>
+        <v>0.02283624141849488</v>
       </c>
       <c r="C87">
-        <v>0.004861475721091611</v>
+        <v>0.023249665532064</v>
       </c>
       <c r="D87">
-        <v>-0.04403262095591681</v>
+        <v>-0.01248238698457904</v>
       </c>
       <c r="E87">
-        <v>-0.006033997468397839</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08234314250544954</v>
+      </c>
+      <c r="F87">
+        <v>-0.01958129267610296</v>
+      </c>
+      <c r="G87">
+        <v>0.1031052622255377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02864756884363592</v>
+        <v>0.09115671889653805</v>
       </c>
       <c r="C88">
-        <v>0.02897684408453388</v>
+        <v>0.06571901180671687</v>
       </c>
       <c r="D88">
-        <v>-0.03664523146157345</v>
+        <v>-0.02255455182809665</v>
       </c>
       <c r="E88">
-        <v>0.00327944447621136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008024946570668807</v>
+      </c>
+      <c r="F88">
+        <v>0.01810373541706688</v>
+      </c>
+      <c r="G88">
+        <v>0.06917418688357281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09689967475675258</v>
+        <v>0.2342919638281837</v>
       </c>
       <c r="C89">
-        <v>0.3914756908897871</v>
+        <v>-0.3684750084306787</v>
       </c>
       <c r="D89">
-        <v>0.2120792988131686</v>
+        <v>-0.0001510989548983662</v>
       </c>
       <c r="E89">
-        <v>0.01984346769482871</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01459236762901064</v>
+      </c>
+      <c r="F89">
+        <v>0.02745065433586153</v>
+      </c>
+      <c r="G89">
+        <v>0.06102303177061323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07431578498342006</v>
+        <v>0.2079386049859336</v>
       </c>
       <c r="C90">
-        <v>0.3060330723118456</v>
+        <v>-0.3200434445036211</v>
       </c>
       <c r="D90">
-        <v>0.1941574101565111</v>
+        <v>0.004309777069359102</v>
       </c>
       <c r="E90">
-        <v>-0.01699535296395199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003464938952256697</v>
+      </c>
+      <c r="F90">
+        <v>0.05001854506662702</v>
+      </c>
+      <c r="G90">
+        <v>0.02366941975883802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01249769319183608</v>
+        <v>0.188546106353935</v>
       </c>
       <c r="C91">
-        <v>0.1388503893478983</v>
+        <v>0.1402993790583174</v>
       </c>
       <c r="D91">
-        <v>-0.2285500530665404</v>
+        <v>0.02441600072670384</v>
       </c>
       <c r="E91">
-        <v>0.01817133767168809</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0695576468826257</v>
+      </c>
+      <c r="F91">
+        <v>0.1501860780775668</v>
+      </c>
+      <c r="G91">
+        <v>0.01188063234087392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04187325753204572</v>
+        <v>0.2017433777761712</v>
       </c>
       <c r="C92">
-        <v>0.3174488905026974</v>
+        <v>-0.2563816939712932</v>
       </c>
       <c r="D92">
-        <v>0.07710380871177468</v>
+        <v>0.0381555809141347</v>
       </c>
       <c r="E92">
-        <v>-0.03206759870279654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03250615853923825</v>
+      </c>
+      <c r="F92">
+        <v>0.05956388831566571</v>
+      </c>
+      <c r="G92">
+        <v>0.1251534557626639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07217380917137771</v>
+        <v>0.2325802491010303</v>
       </c>
       <c r="C93">
-        <v>0.3243600850735361</v>
+        <v>-0.3173983406993824</v>
       </c>
       <c r="D93">
-        <v>0.1761934587149108</v>
+        <v>0.01094072048013519</v>
       </c>
       <c r="E93">
-        <v>-0.03994616775641747</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008858402783944197</v>
+      </c>
+      <c r="F93">
+        <v>0.03167841264466805</v>
+      </c>
+      <c r="G93">
+        <v>0.02440968558830678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03766702884492596</v>
+        <v>0.3179891202488458</v>
       </c>
       <c r="C94">
-        <v>0.1640638471608455</v>
+        <v>0.1779291243295799</v>
       </c>
       <c r="D94">
-        <v>-0.2539551505277499</v>
+        <v>0.01953448037556149</v>
       </c>
       <c r="E94">
-        <v>-0.02058751789396953</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1693179991426904</v>
+      </c>
+      <c r="F94">
+        <v>0.4760030947501829</v>
+      </c>
+      <c r="G94">
+        <v>-0.3186557968223735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003805979587837415</v>
+        <v>0.09916530234511446</v>
       </c>
       <c r="C95">
-        <v>0.03268024056484618</v>
+        <v>0.08624596848219962</v>
       </c>
       <c r="D95">
-        <v>-0.09258976732507682</v>
+        <v>0.009989575059076418</v>
       </c>
       <c r="E95">
-        <v>-0.1252084616059708</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06316800098031096</v>
+      </c>
+      <c r="F95">
+        <v>-0.1997529014265807</v>
+      </c>
+      <c r="G95">
+        <v>-0.0763241111581331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02085920615326165</v>
+        <v>0.1969490138828579</v>
       </c>
       <c r="C98">
-        <v>0.1585747789696545</v>
+        <v>0.04887215914573948</v>
       </c>
       <c r="D98">
-        <v>-0.1399245824219192</v>
+        <v>0.01145795665132884</v>
       </c>
       <c r="E98">
-        <v>-0.0392913074531332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06998553458270404</v>
+      </c>
+      <c r="F98">
+        <v>-0.2399116510012124</v>
+      </c>
+      <c r="G98">
+        <v>-0.01198797077854532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009220677949717999</v>
+        <v>0.008956461596084618</v>
       </c>
       <c r="C101">
-        <v>0.01706599141406306</v>
+        <v>0.02139609031583472</v>
       </c>
       <c r="D101">
-        <v>-0.008390999332576319</v>
+        <v>-0.008417701272094494</v>
       </c>
       <c r="E101">
-        <v>0.002985176543866202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001088077001182297</v>
+      </c>
+      <c r="F101">
+        <v>0.0155089356155569</v>
+      </c>
+      <c r="G101">
+        <v>0.07860660072675109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02015331221031254</v>
+        <v>0.1175078354595946</v>
       </c>
       <c r="C102">
-        <v>0.06831053540803476</v>
+        <v>0.08477883075376348</v>
       </c>
       <c r="D102">
-        <v>-0.1321840070714967</v>
+        <v>-0.0004315647830227194</v>
       </c>
       <c r="E102">
-        <v>0.003198966703191551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03344782637650967</v>
+      </c>
+      <c r="F102">
+        <v>0.041985503003629</v>
+      </c>
+      <c r="G102">
+        <v>0.0004694943310741827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001530822157777147</v>
+        <v>0.002723691094889516</v>
       </c>
       <c r="C103">
-        <v>0.008548396890487491</v>
+        <v>0.002960661334260642</v>
       </c>
       <c r="D103">
-        <v>-0.01946751755204975</v>
+        <v>3.363739095380945e-05</v>
       </c>
       <c r="E103">
-        <v>0.01222174218050814</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0009408184787265079</v>
+      </c>
+      <c r="F103">
+        <v>0.007330173889847067</v>
+      </c>
+      <c r="G103">
+        <v>0.01437448687444114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9686158430561702</v>
+        <v>0.02095799867006701</v>
       </c>
       <c r="C104">
-        <v>-0.2074436148702935</v>
+        <v>-0.0291605335564794</v>
       </c>
       <c r="D104">
-        <v>0.01758749642998595</v>
+        <v>-0.9870113536250331</v>
       </c>
       <c r="E104">
-        <v>0.03802750727314465</v>
+        <v>0.0571124447360984</v>
+      </c>
+      <c r="F104">
+        <v>0.03980835869484788</v>
+      </c>
+      <c r="G104">
+        <v>-0.02588866457174665</v>
       </c>
     </row>
   </sheetData>
